--- a/04.Exercises/Session-04/TestCase-Login.xlsx
+++ b/04.Exercises/Session-04/TestCase-Login.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/GitHub/Aptech/tester-tutorials/04.Exercises/Session-04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1963A64E-3A16-EE4F-A970-7BFBE2B95788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F532AB6-2900-B84F-8DD8-03F41E4BF803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case (Basic)" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Dependencies:</t>
   </si>
@@ -241,56 +241,48 @@
     <t>TC-A-01</t>
   </si>
   <si>
-    <t>Yêu cầu chung về số lượng thành phần về Tên đăng nhập</t>
+    <t>Yêu cầu về thiết kế các đối tượng: Tên đăng nhập.</t>
   </si>
   <si>
-    <t>Kiểm tra xuất hiện trên màn hình login</t>
+    <t>Test case - Status</t>
   </si>
   <si>
-    <t>Quan sát</t>
+    <t>Khi focus có border màu xanh (#1890ff), khi không focus có border màu xám (#d9d9d9)</t>
   </si>
   <si>
-    <t>Có xuất hiện</t>
+    <t>1. Focus: #1890ff
+2. Not Focus: #d9d9d9</t>
   </si>
   <si>
-    <t>Yêu cầu chung về số lượng thành phần về Mật khẩu</t>
+    <t>Các placeholder text: "Nhập tên đăng nhập".</t>
   </si>
   <si>
-    <t>Mật khẩu phải để chế độ bảo mật, nhập vào thì thấy dấu *</t>
+    <t>Kích thước: chiều cao 32px, chiều rộng 460px.</t>
   </si>
   <si>
-    <t>Quan sát và nhập thử dữ liệu để kiểm tra có được che dấu bởi dấu *</t>
+    <t>PlaceholderText: Nhập tên đăng nhập</t>
   </si>
   <si>
-    <t>Tester@123</t>
+    <t>PlaceholderText:</t>
   </si>
   <si>
-    <t>Xuất hiện dấu * che dấu mật khẩu khi nhập liệu</t>
+    <t>1. Height: 32px
+2. Width: 460px</t>
   </si>
   <si>
-    <t>1. Nhập 3 ký tự hợp lệ
-2. Nhập 2 ký tự hợp lệ
-3. Nhập 4 ký tự hợp lệ
-4.</t>
+    <t>1. Height:
+2. Width:</t>
   </si>
   <si>
-    <t>Bằng chứng: tC-01.jpg</t>
-  </si>
-  <si>
-    <t>#59FAFF</t>
-  </si>
-  <si>
-    <t>#59FAF4</t>
-  </si>
-  <si>
-    <t>Kiểm tra nút đăng nhập khi mouse hover phải có có màu: #59FAF4</t>
+    <t>1. Focus: #369FFF
+2. Not Focus: #D4D4D4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -378,6 +370,13 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -516,7 +515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -590,9 +589,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -606,9 +602,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -628,6 +621,36 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -946,11 +969,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K347"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane xSplit="3" ySplit="10" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="3" ySplit="10" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -962,15 +985,16 @@
     <col min="5" max="5" width="24" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="4" customWidth="1"/>
-    <col min="9" max="10" width="4" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13" style="4" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="4" customWidth="1"/>
     <col min="11" max="11" width="17.5" style="4" customWidth="1"/>
     <col min="12" max="16384" width="11.5" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -992,8 +1016,8 @@
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
@@ -1064,49 +1088,49 @@
       <c r="B6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="41"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25"/>
       <c r="B8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="26"/>
@@ -1125,189 +1149,177 @@
       <c r="A10" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="27"/>
+      <c r="J10" s="27" t="s">
+        <v>32</v>
+      </c>
       <c r="K10" s="27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="28">
-        <v>1</v>
-      </c>
-      <c r="B11" s="29" t="s">
+    <row r="11" spans="1:11" s="8" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="28"/>
+      <c r="B11" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30" t="s">
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="1:11" s="8" customFormat="1" ht="68" x14ac:dyDescent="0.15">
-      <c r="A12" s="28">
-        <v>2</v>
+      <c r="H11" s="30" t="s">
+        <v>41</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30" t="s">
+      <c r="I11" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="40"/>
+      <c r="K11" s="30"/>
+    </row>
+    <row r="12" spans="1:11" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="28"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="E12" s="29"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="33"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="32"/>
+    </row>
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="28"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="30" t="s">
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="33"/>
-    </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="68" x14ac:dyDescent="0.15">
-      <c r="A13" s="28">
-        <v>3</v>
-      </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="30" t="s">
+      <c r="H13" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="34"/>
-      <c r="K13" s="33" t="s">
-        <v>41</v>
-      </c>
+      <c r="I13" s="33"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="32"/>
     </row>
     <row r="14" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="35"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="33"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="35"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="33"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="35"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="33"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="33"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="33"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="35"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="33"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
@@ -5574,7 +5586,10 @@
       <c r="K347" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="J11:J19"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C6:K6"/>
     <mergeCell ref="C7:K7"/>
@@ -5582,16 +5597,13 @@
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F12" r:id="rId1" xr:uid="{73E9E9F4-1160-A348-9A08-ADF900D39771}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
     <ignoredError sqref="D3" numberStoredAsText="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
